--- a/Master_OCXO_DAC_V1.0.xlsx
+++ b/Master_OCXO_DAC_V1.0.xlsx
@@ -11,6 +11,7 @@
   </sheets>
   <definedNames>
     <definedName name="Master_OCXO_DAC_V1.0" localSheetId="0">Sheet1!$A$1:$H$34</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$G$36</definedName>
   </definedNames>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -257,7 +258,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -277,6 +278,12 @@
       <u/>
       <sz val="12"/>
       <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -646,10 +653,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="B1:F34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection sqref="A1:G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1050,11 +1060,12 @@
   <sortState ref="A2:F28">
     <sortCondition ref="B2:B28"/>
   </sortState>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.75000000000000011" right="0.75000000000000011" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" scale="83" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+      <mx:PLV Mode="0" OnePage="0" WScale="100"/>
     </ext>
   </extLst>
 </worksheet>
